--- a/docs/doc.xlsx
+++ b/docs/doc.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CPP\games\honey_engine\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0482CD73-D155-46AB-BBF6-6D6F65D1C402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C54D8E7-1B3D-499D-8915-70554F33A00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="URL" sheetId="1" r:id="rId1"/>
+    <sheet name="TODO" sheetId="2" r:id="rId1"/>
+    <sheet name="URL" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>How To Render CIRCLES (OpenGL/Vulkan/DirectX/Metal)</t>
   </si>
@@ -217,13 +218,67 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=W3gAzLwfIP0&amp;t=4s</t>
+  </si>
+  <si>
+    <t>https://github.com/google/sanitizers/wiki</t>
+  </si>
+  <si>
+    <t>Sanitizers</t>
+  </si>
+  <si>
+    <t>https://github.com/google/sanitizers/wiki/ThreadSanitizerCppManual</t>
+  </si>
+  <si>
+    <t>ThreadSanitizer</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Add Sanitizers (see URL)</t>
+  </si>
+  <si>
+    <t>Add ThreadSanitizer (see URL)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>project improvement</t>
+  </si>
+  <si>
+    <t>project refactor</t>
+  </si>
+  <si>
+    <t>Change libraries namieng (Cmake files)</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Code coverage</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Logger</t>
+  </si>
+  <si>
+    <t>Make saving log on a disk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,16 +294,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -256,12 +332,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -273,6 +364,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -555,20 +657,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F780327-EF1D-48F2-A792-5E8C694AC899}">
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="108.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,23 +834,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -600,7 +870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -608,7 +878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -616,7 +886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -624,7 +894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -632,7 +902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -640,7 +910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -648,7 +918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -656,7 +926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -664,7 +934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -672,7 +942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -680,7 +950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -688,7 +958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -856,5 +1126,6 @@
     <hyperlink ref="B3" r:id="rId28" xr:uid="{7FD118BD-06D1-406E-8E3B-D53AD25FE5B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/docs/doc.xlsx
+++ b/docs/doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CPP\games\honey_engine\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C54D8E7-1B3D-499D-8915-70554F33A00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE9C4B6-D6BD-4648-94BD-F813D94542C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>How To Render CIRCLES (OpenGL/Vulkan/DirectX/Metal)</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Make saving log on a disk</t>
+  </si>
+  <si>
+    <t>Point2d powinien mieć prefix gfx</t>
   </si>
 </sst>
 </file>
@@ -661,7 +664,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,10 +775,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
